--- a/biology/Zoologie/Glyptocephalus/Glyptocephalus.xlsx
+++ b/biology/Zoologie/Glyptocephalus/Glyptocephalus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Glyptocephalus est un genre de poissons de la famille des Pleuronectidae. Ce genre contient entre autres la plie grise.
 Comme tous les poissons de la famille des Pleuronectidae, les poissons du genre Glyptocephalus possèdent un corps aplati asymétrique et leurs yeux sont sur un même côté de ce corps.
@@ -512,13 +524,15 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon FishBase                                           (14 février 2016)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon FishBase                                           (14 février 2016) :
 Glyptocephalus cynoglossus (Linnaeus, 1758) - plie grise
 Glyptocephalus stelleri (Schmidt, 1904)
 Glyptocephalus zachirus Lockington, 1879
-Selon World Register of Marine Species                               (28 décembre 2022)[2] :
+Selon World Register of Marine Species                               (28 décembre 2022) :
 Glyptocephalus cynoglossus (Linnaeus, 1758)
 Glyptocephalus kitaharae (Jordan &amp; Starks, 1904)
 Glyptocephalus stelleri (Schmidt, 1904)
